--- a/data_5.xlsx
+++ b/data_5.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.719339873408963</v>
+        <v>3.700868751404378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12864036075654853</v>
+        <v>0.13085035894043018</v>
       </c>
       <c r="D2" t="n">
-        <v>4.5431283958917055</v>
+        <v>4.577121952585091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1770816303302291</v>
+        <v>0.17846752469042035</v>
       </c>
       <c r="F2" t="n">
         <v>0.050635645762620016</v>
@@ -132,7 +132,7 @@
         <v>5.9708135319515785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24935061922657129</v>
+        <v>0.24871820019908575</v>
       </c>
       <c r="D3" t="n">
         <v>8.465056264549885</v>
@@ -152,7 +152,7 @@
         <v>6.253610707554381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6220090200168802</v>
+        <v>0.6204314408604841</v>
       </c>
       <c r="D4" t="n">
         <v>9.826612073848024</v>
